--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_5_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_5_19.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>771590.7574979145</v>
+        <v>747272.6647092011</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564205</v>
+        <v>189902.9539564206</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728809</v>
+        <v>9102620.618728815</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>301.8209891431497</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>373.1964540713599</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,13 +713,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,7 +753,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250819</v>
@@ -789,7 +789,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.45403149117914</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -838,7 +838,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>200.9124899777286</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>196.5844386502385</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>33.20988753395248</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>110.1458031968976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>53.4275603193054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325221</v>
       </c>
       <c r="T9" t="n">
         <v>196.8897623984489</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>43.31785343913965</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>218.3734398702018</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>174.5127132271848</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,25 +1570,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>9.27559683049698</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>121.9722865630709</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>83.35754216493046</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1652,22 +1652,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1704,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1771,22 +1771,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1819,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>290.2352121446296</v>
+        <v>104.5113366705979</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>127.0044127072328</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,25 +2081,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>1.178315471687517</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>44.78053305661398</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2175,7 +2175,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
         <v>61.42221998250819</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>43.31785343913925</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>230.2634979541055</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2327,16 +2327,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>147.2369829197883</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,19 +2363,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>159.5623709710783</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2494,10 +2494,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,19 +2518,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>156.1271626621467</v>
       </c>
       <c r="T25" t="n">
-        <v>99.34508049624289</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>218.3734398702018</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2570,10 +2570,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,13 +2606,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>115.2511029009962</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>43.60620160013897</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2755,31 +2755,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>194.0270836661628</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,25 +2792,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>292.9381624803053</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>8.468524200618862</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,28 +2837,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2956,16 +2956,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>150.5540262346242</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,13 +3001,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>129.0246247964033</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3026,22 +3026,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>338.3682296398979</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>395.0053657698354</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3080,10 +3080,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3092,10 +3092,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3193,22 +3193,22 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3247,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>365.9707017312293</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,22 +3311,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>13.18828000522866</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3466,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,19 +3478,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>205.3743261851591</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>56.58072854101201</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,19 +3500,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>104.5113366705979</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>122.6482657733857</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3703,25 +3703,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>205.1332020905459</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3755,10 +3755,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>244.7436793601185</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,25 +3785,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>137.0203456208569</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3898,16 +3898,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -3916,10 +3916,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>16.41417826496285</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>37.83808333974872</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3980,16 +3980,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>29.81956111589711</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>104.5231589916214</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4059,7 +4059,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646384</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4135,16 +4135,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4195,13 +4195,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>59.72683757586846</v>
+        <v>155.2114886365809</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>512.2786438284563</v>
+        <v>799.8716139843721</v>
       </c>
       <c r="C2" t="n">
-        <v>207.4089578252748</v>
+        <v>430.9090970439603</v>
       </c>
       <c r="D2" t="n">
-        <v>207.4089578252748</v>
+        <v>430.9090970439603</v>
       </c>
       <c r="E2" t="n">
-        <v>207.4089578252748</v>
+        <v>430.9090970439603</v>
       </c>
       <c r="F2" t="n">
-        <v>207.4089578252748</v>
+        <v>430.9090970439603</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,7 +4331,7 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224073</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X2" t="n">
-        <v>1289.01781586839</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y2" t="n">
-        <v>898.8784838925781</v>
+        <v>799.8716139843721</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4437,13 +4437,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>663.9100130487641</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F4" t="n">
-        <v>517.0200655508537</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2310.5492509541</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>1920.389229338189</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1562.123530731439</v>
       </c>
       <c r="E5" t="n">
         <v>1363.553390680693</v>
@@ -4562,7 +4562,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018222</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y5" t="n">
-        <v>2697.149091018222</v>
+        <v>2289.351746278601</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>517.0200655508537</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1749.341643278937</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>1320.24122488254</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>961.9755262757897</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>576.1872736775454</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>165.2013688879378</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>165.2013688879378</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>165.2013688879378</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988822</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W8" t="n">
-        <v>2189.908715988822</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="X8" t="n">
-        <v>2189.908715988822</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="Y8" t="n">
-        <v>2135.941483343059</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464692</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084168</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>279.3468541648866</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2476.569858826099</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C11" t="n">
-        <v>2107.607341885688</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D11" t="n">
-        <v>1749.341643278937</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E11" t="n">
-        <v>1363.553390680693</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F11" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5066,25 +5066,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X11" t="n">
-        <v>2697.149091018222</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="Y11" t="n">
-        <v>2697.149091018222</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
@@ -5130,37 +5130,37 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C13" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D13" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E13" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F13" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G13" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H13" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I13" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>99.5995062532301</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V13" t="n">
-        <v>99.5995062532301</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W13" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X13" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y13" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>546.109828622464</v>
+        <v>1293.182375355301</v>
       </c>
       <c r="C14" t="n">
-        <v>177.1473116820522</v>
+        <v>1293.182375355301</v>
       </c>
       <c r="D14" t="n">
-        <v>177.1473116820522</v>
+        <v>934.9166767485501</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036445</v>
+        <v>549.1284241503058</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036445</v>
+        <v>138.1425193606983</v>
       </c>
       <c r="G14" t="n">
         <v>53.94298182036445</v>
@@ -5276,19 +5276,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5300,28 +5300,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V14" t="n">
-        <v>1662.48357412947</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W14" t="n">
-        <v>1309.714918859356</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X14" t="n">
-        <v>936.2491605982757</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="Y14" t="n">
-        <v>546.109828622464</v>
+        <v>1679.782215419422</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
@@ -5355,43 +5355,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5440,46 +5440,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2247.308246834948</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="C17" t="n">
-        <v>1954.141365880777</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D17" t="n">
-        <v>1595.875667274027</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E17" t="n">
-        <v>1210.087414675782</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F17" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036445</v>
@@ -5546,19 +5546,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U17" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V17" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W17" t="n">
-        <v>2247.308246834948</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X17" t="n">
-        <v>2247.308246834948</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y17" t="n">
-        <v>2247.308246834948</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
@@ -5592,16 +5592,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
         <v>1748.695370517453</v>
@@ -5616,19 +5616,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5692,25 +5692,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>182.2302673832259</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X19" t="n">
         <v>53.94298182036445</v>
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1364.743608328862</v>
+        <v>1623.178216428726</v>
       </c>
       <c r="C20" t="n">
-        <v>1364.743608328862</v>
+        <v>1254.215699488314</v>
       </c>
       <c r="D20" t="n">
-        <v>1364.743608328862</v>
+        <v>895.9500008815637</v>
       </c>
       <c r="E20" t="n">
-        <v>1363.553390680693</v>
+        <v>510.1617482833195</v>
       </c>
       <c r="F20" t="n">
-        <v>952.5674858910851</v>
+        <v>99.17584349371191</v>
       </c>
       <c r="G20" t="n">
-        <v>534.603677789272</v>
+        <v>99.17584349371191</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5777,25 +5777,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>1717.512263598976</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W20" t="n">
-        <v>1364.743608328862</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X20" t="n">
-        <v>1364.743608328862</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y20" t="n">
-        <v>1364.743608328862</v>
+        <v>1623.178216428726</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
         <v>115.9856282673424</v>
@@ -5829,43 +5829,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.963088632153</v>
+        <v>2066.718496146435</v>
       </c>
       <c r="C22" t="n">
         <v>2022.963088632153</v>
@@ -5935,25 +5935,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S22" t="n">
-        <v>2482.860667836385</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T22" t="n">
-        <v>2255.552480504987</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U22" t="n">
-        <v>2022.963088632153</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V22" t="n">
-        <v>2022.963088632153</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W22" t="n">
-        <v>2022.963088632153</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X22" t="n">
-        <v>2022.963088632153</v>
+        <v>2469.159540120205</v>
       </c>
       <c r="Y22" t="n">
-        <v>2022.963088632153</v>
+        <v>2248.366960976675</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1315.683675137274</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C23" t="n">
-        <v>946.7211581968625</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D23" t="n">
-        <v>588.455459590112</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E23" t="n">
-        <v>202.6672069918678</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F23" t="n">
-        <v>202.6672069918678</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G23" t="n">
-        <v>202.6672069918678</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
@@ -5993,7 +5993,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6011,28 +6011,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2423.485734520778</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="U23" t="n">
-        <v>2423.485734520778</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="V23" t="n">
-        <v>2092.422847177208</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="W23" t="n">
-        <v>2092.422847177208</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="X23" t="n">
-        <v>2092.422847177208</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="Y23" t="n">
-        <v>1702.283515201396</v>
+        <v>2535.974978926224</v>
       </c>
     </row>
     <row r="24">
@@ -6042,67 +6042,67 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2204.94852396637</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C25" t="n">
-        <v>2204.94852396637</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D25" t="n">
-        <v>2204.94852396637</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E25" t="n">
-        <v>2204.94852396637</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F25" t="n">
-        <v>2204.94852396637</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G25" t="n">
-        <v>2204.94852396637</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H25" t="n">
-        <v>2204.94852396637</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I25" t="n">
-        <v>2068.619613065019</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J25" t="n">
         <v>2022.963088632153</v>
@@ -6166,31 +6166,31 @@
         <v>2697.149091018222</v>
       </c>
       <c r="Q25" t="n">
-        <v>2667.732171871844</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R25" t="n">
-        <v>2519.585513306029</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S25" t="n">
-        <v>2305.297090124192</v>
+        <v>2539.444886308983</v>
       </c>
       <c r="T25" t="n">
-        <v>2204.94852396637</v>
+        <v>2312.136698977585</v>
       </c>
       <c r="U25" t="n">
-        <v>2204.94852396637</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="V25" t="n">
-        <v>2204.94852396637</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W25" t="n">
-        <v>2204.94852396637</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X25" t="n">
-        <v>2204.94852396637</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y25" t="n">
-        <v>2204.94852396637</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2476.569858826099</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C26" t="n">
-        <v>2107.607341885688</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D26" t="n">
-        <v>1749.341643278937</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E26" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F26" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
@@ -6227,10 +6227,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6254,22 +6254,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2580.733835562671</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2326.972050200762</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018222</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="X26" t="n">
-        <v>2697.149091018222</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="Y26" t="n">
-        <v>2697.149091018222</v>
+        <v>1995.909162857192</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.9896501033331</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>97.9896501033331</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>97.9896501033331</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
         <v>53.94298182036445</v>
@@ -6403,31 +6403,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R28" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S28" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T28" t="n">
-        <v>352.67413830922</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U28" t="n">
-        <v>352.67413830922</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V28" t="n">
-        <v>97.9896501033331</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W28" t="n">
-        <v>97.9896501033331</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X28" t="n">
-        <v>97.9896501033331</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.9896501033331</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1873.842488573869</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="C29" t="n">
-        <v>1504.879971633457</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="D29" t="n">
-        <v>1146.614273026707</v>
+        <v>891.4467595608951</v>
       </c>
       <c r="E29" t="n">
-        <v>760.8260204284622</v>
+        <v>891.4467595608951</v>
       </c>
       <c r="F29" t="n">
-        <v>349.8401156388547</v>
+        <v>480.4608547712875</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>62.4970466694744</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>62.4970466694744</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533135</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M29" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6485,28 +6485,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>2247.308246834948</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W29" t="n">
-        <v>2247.308246834948</v>
+        <v>2013.317548404537</v>
       </c>
       <c r="X29" t="n">
-        <v>1873.842488573869</v>
+        <v>1639.851790143457</v>
       </c>
       <c r="Y29" t="n">
-        <v>1873.842488573869</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E30" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6579,10 +6579,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>2321.927810104431</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>2175.03786260652</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>2175.03786260652</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="K31" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.26528169842</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T31" t="n">
-        <v>597.8010803716834</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="U31" t="n">
-        <v>308.6274700262513</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="V31" t="n">
-        <v>53.94298182036445</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036445</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036445</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>2469.840903686824</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1249.712458167646</v>
+        <v>1199.13500546934</v>
       </c>
       <c r="C32" t="n">
-        <v>1249.712458167646</v>
+        <v>830.1724885289281</v>
       </c>
       <c r="D32" t="n">
-        <v>1249.712458167646</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E32" t="n">
-        <v>863.9242055694017</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F32" t="n">
-        <v>452.9383007797941</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L32" t="n">
         <v>881.2824271224073</v>
@@ -6728,22 +6728,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V32" t="n">
-        <v>2366.086203674652</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W32" t="n">
-        <v>2013.317548404538</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="X32" t="n">
-        <v>1639.851790143458</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="Y32" t="n">
-        <v>1249.712458167646</v>
+        <v>1540.921096014691</v>
       </c>
     </row>
     <row r="33">
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L33" t="n">
         <v>713.8062203571349</v>
@@ -6798,28 +6798,28 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C34" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D34" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E34" t="n">
-        <v>2678.586644293418</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F34" t="n">
-        <v>2531.696696795508</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G34" t="n">
-        <v>2362.69689653384</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H34" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I34" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W34" t="n">
-        <v>2697.149091018222</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X34" t="n">
-        <v>2697.149091018222</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y34" t="n">
-        <v>2697.149091018222</v>
+        <v>217.9192350259435</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>850.7171392082162</v>
+        <v>1589.347031634718</v>
       </c>
       <c r="C35" t="n">
-        <v>850.7171392082162</v>
+        <v>1220.384514694307</v>
       </c>
       <c r="D35" t="n">
-        <v>850.7171392082162</v>
+        <v>1220.384514694307</v>
       </c>
       <c r="E35" t="n">
-        <v>464.928886609972</v>
+        <v>834.5962620960622</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036445</v>
+        <v>423.6103573064547</v>
       </c>
       <c r="G35" t="n">
         <v>53.94298182036445</v>
@@ -6935,7 +6935,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733125</v>
@@ -6959,28 +6959,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>1980.224966518264</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W35" t="n">
-        <v>1627.45631124815</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X35" t="n">
-        <v>1627.45631124815</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="Y35" t="n">
-        <v>1237.316979272338</v>
+        <v>1975.94687169884</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J37" t="n">
         <v>53.94298182036445</v>
@@ -7114,31 +7114,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>261.391796148808</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>670.9767331549069</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>450.1841540113768</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>850.7171392082162</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="C38" t="n">
-        <v>850.7171392082162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D38" t="n">
-        <v>850.7171392082162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E38" t="n">
-        <v>464.928886609972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F38" t="n">
         <v>53.94298182036445</v>
@@ -7196,28 +7196,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U38" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V38" t="n">
-        <v>1717.512263598976</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W38" t="n">
-        <v>1364.743608328862</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X38" t="n">
-        <v>1240.856471184028</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y38" t="n">
-        <v>850.7171392082162</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>184.2708856551153</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C40" t="n">
-        <v>184.2708856551153</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D40" t="n">
-        <v>184.2708856551153</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E40" t="n">
-        <v>184.2708856551153</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="U40" t="n">
-        <v>438.9553738610022</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="V40" t="n">
-        <v>184.2708856551153</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W40" t="n">
-        <v>184.2708856551153</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X40" t="n">
-        <v>184.2708856551153</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y40" t="n">
-        <v>184.2708856551153</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>781.1711973675267</v>
+        <v>1567.641263708175</v>
       </c>
       <c r="C41" t="n">
-        <v>412.2086804271149</v>
+        <v>1198.678746767763</v>
       </c>
       <c r="D41" t="n">
-        <v>53.94298182036445</v>
+        <v>840.4130481610125</v>
       </c>
       <c r="E41" t="n">
-        <v>53.94298182036445</v>
+        <v>454.6247955627683</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036445</v>
+        <v>454.6247955627683</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>454.6247955627683</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7433,28 +7433,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>1309.714918859356</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X41" t="n">
-        <v>1171.310529343338</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y41" t="n">
-        <v>781.1711973675267</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
         <v>2646.935720430048</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>689.9086980046678</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="C43" t="n">
-        <v>520.9725150767609</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="D43" t="n">
-        <v>370.8558756644252</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="E43" t="n">
-        <v>222.942782082032</v>
+        <v>432.0692320582251</v>
       </c>
       <c r="F43" t="n">
-        <v>222.942782082032</v>
+        <v>285.1792845603147</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>116.1794842986471</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>116.1794842986471</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J43" t="n">
         <v>53.94298182036445</v>
@@ -7591,28 +7591,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T43" t="n">
-        <v>689.9086980046678</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U43" t="n">
-        <v>689.9086980046678</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V43" t="n">
-        <v>689.9086980046678</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W43" t="n">
-        <v>689.9086980046678</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X43" t="n">
-        <v>689.9086980046678</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y43" t="n">
-        <v>689.9086980046678</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1435.441956461044</v>
+        <v>1040.216121848822</v>
       </c>
       <c r="C44" t="n">
-        <v>1066.479439520632</v>
+        <v>671.2536049084106</v>
       </c>
       <c r="D44" t="n">
-        <v>1036.358670716696</v>
+        <v>312.9879063016601</v>
       </c>
       <c r="E44" t="n">
-        <v>1036.358670716696</v>
+        <v>312.9879063016601</v>
       </c>
       <c r="F44" t="n">
-        <v>625.3727659270879</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G44" t="n">
         <v>207.4089578252748</v>
@@ -7646,19 +7646,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7673,25 +7673,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U44" t="n">
-        <v>2212.181128500977</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V44" t="n">
-        <v>2212.181128500977</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W44" t="n">
-        <v>2212.181128500977</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X44" t="n">
-        <v>2212.181128500977</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="Y44" t="n">
-        <v>1822.041796525165</v>
+        <v>1426.815961912944</v>
       </c>
     </row>
     <row r="45">
@@ -7701,10 +7701,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
         <v>665.1105362747051</v>
@@ -7725,16 +7725,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
         <v>1748.695370517453</v>
@@ -7746,22 +7746,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
         <v>53.94298182036445</v>
@@ -7843,13 +7843,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W46" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X46" t="n">
-        <v>728.1289842064342</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y46" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142006</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8778,7 +8778,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9249,10 +9249,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747122</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9732,7 +9732,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9969,10 +9969,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10197,7 +10197,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>422.2865794093292</v>
+        <v>346.2692436516219</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747169</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.346924411984</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,7 +11385,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>435.923890002883</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>63.45190262785786</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22559,13 +22559,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>40.58771594943505</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,13 +22601,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>111.97993115539</v>
+        <v>128.0571403890128</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22726,7 +22726,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -22781,16 +22781,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>164.3604017932789</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>185.3459314220233</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22829,7 +22829,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -22844,7 +22844,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22951,16 +22951,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>112.2111604889788</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853701</v>
@@ -22984,22 +22984,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23021,10 +23021,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23033,13 +23033,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.78551304796362</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,7 +23066,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -23078,7 +23078,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23087,7 +23087,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>332.8103783367482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23176,10 +23176,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9289676594882</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23200,7 +23200,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,19 +23221,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>231.8063182229441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23242,10 +23242,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>164.3604017932788</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>211.7252254288688</v>
       </c>
     </row>
     <row r="12">
@@ -23434,10 +23434,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,25 +23458,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>277.0062774114808</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23492,22 +23492,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>259.9580835091909</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>330.4266278558645</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23540,22 +23540,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23659,22 +23659,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,10 +23695,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23707,13 +23707,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23729,25 +23729,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>75.03767962637795</v>
+        <v>260.7615551004096</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23786,19 +23786,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23932,7 +23932,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
@@ -23941,19 +23941,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>125.1332306165952</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>131.0703856053968</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,25 +23969,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>380.7520546005742</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>279.1422397077432</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9289676594886</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24175,13 +24175,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>56.01837628787223</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,10 +24190,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24215,16 +24215,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>176.6857898445689</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,19 +24251,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>56.88594938657951</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24272,7 +24272,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24382,10 +24382,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,19 +24406,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>56.0183762878722</v>
       </c>
       <c r="T25" t="n">
-        <v>125.6900249618414</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>164.3604017932788</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24458,10 +24458,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,13 +24494,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>101.1972174566616</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>102.8277610464302</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24643,31 +24643,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>92.49591467042822</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24680,25 +24680,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>120.8460075404897</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>143.4627920442424</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24725,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24844,16 +24844,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>5.616862607170958</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923383</v>
@@ -24889,13 +24889,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>96.01048066168096</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24914,22 +24914,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>44.36561202358263</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>18.77880425095958</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24968,10 +24968,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24980,10 +24980,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>17.49548950841407</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25081,22 +25081,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25154,7 +25154,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>47.81346828956566</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25199,22 +25199,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>314.5639784649063</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25309,10 +25309,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25333,7 +25333,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,10 +25354,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25366,19 +25366,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>46.7633171386689</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>169.1289268480251</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,19 +25388,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>260.7615551004096</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -25454,7 +25454,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>247.0828349050834</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>16.39642322652793</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25591,25 +25591,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>7.012336859473038</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,7 +25634,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25643,10 +25643,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>79.17909340423864</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,25 +25673,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>232.7107550576121</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25786,16 +25786,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,10 +25804,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>118.5514435273754</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>187.1970221183356</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -25868,16 +25868,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>324.8634805047859</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>302.3528867500901</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,7 +25925,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -26023,16 +26023,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
@@ -26083,13 +26083,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>158.8578157762263</v>
+        <v>63.37316471551392</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>781628.703216691</v>
+        <v>781628.7032166909</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>781628.703216691</v>
+        <v>781628.7032166909</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>781628.703216691</v>
+        <v>781628.7032166909</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>781628.7032166912</v>
+        <v>781628.703216691</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>781628.703216691</v>
+        <v>781628.7032166912</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>781628.7032166912</v>
+        <v>781628.7032166909</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>781628.7032166909</v>
+        <v>781628.7032166912</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>781628.703216691</v>
+        <v>781628.7032166912</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>781628.7032166912</v>
+        <v>781628.703216691</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>781628.703216691</v>
+        <v>781628.7032166909</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>781628.7032166909</v>
+        <v>781628.7032166912</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>781628.7032166912</v>
+        <v>781628.703216691</v>
       </c>
     </row>
     <row r="16">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="C2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="D2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="E2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="E2" t="n">
-        <v>274694.9795149698</v>
-      </c>
       <c r="F2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="G2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="H2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="I2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="I2" t="n">
-        <v>274694.9795149698</v>
-      </c>
       <c r="J2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="K2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149695</v>
       </c>
       <c r="L2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="M2" t="n">
         <v>274694.9795149697</v>
@@ -26350,10 +26350,10 @@
         <v>274694.9795149698</v>
       </c>
       <c r="O2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="P2" t="n">
         <v>274694.9795149698</v>
-      </c>
-      <c r="P2" t="n">
-        <v>274694.9795149699</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="C4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="D4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="E4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="F4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="G4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="H4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="I4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="J4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="K4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.65617556859</v>
       </c>
       <c r="L4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="M4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="N4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="O4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="P4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.65617556861</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-440028.096206162</v>
+        <v>-442934.6339385527</v>
       </c>
       <c r="C6" t="n">
-        <v>149939.7830083823</v>
+        <v>147033.2452759917</v>
       </c>
       <c r="D6" t="n">
-        <v>149939.7830083823</v>
+        <v>147033.2452759919</v>
       </c>
       <c r="E6" t="n">
-        <v>183567.3830083824</v>
+        <v>180660.8452759917</v>
       </c>
       <c r="F6" t="n">
-        <v>183567.3830083824</v>
+        <v>180660.8452759915</v>
       </c>
       <c r="G6" t="n">
-        <v>183567.3830083824</v>
+        <v>180660.8452759917</v>
       </c>
       <c r="H6" t="n">
-        <v>183567.3830083823</v>
+        <v>180660.8452759918</v>
       </c>
       <c r="I6" t="n">
-        <v>183567.3830083824</v>
+        <v>180660.8452759916</v>
       </c>
       <c r="J6" t="n">
-        <v>7144.163815789332</v>
+        <v>4237.626083398842</v>
       </c>
       <c r="K6" t="n">
-        <v>183567.3830083823</v>
+        <v>180660.8452759915</v>
       </c>
       <c r="L6" t="n">
-        <v>183567.3830083822</v>
+        <v>180660.8452759918</v>
       </c>
       <c r="M6" t="n">
-        <v>183567.3830083823</v>
+        <v>180660.8452759917</v>
       </c>
       <c r="N6" t="n">
-        <v>183567.3830083824</v>
+        <v>180660.8452759917</v>
       </c>
       <c r="O6" t="n">
-        <v>183567.3830083824</v>
+        <v>180660.8452759917</v>
       </c>
       <c r="P6" t="n">
-        <v>183567.3830083825</v>
+        <v>180660.8452759917</v>
       </c>
     </row>
   </sheetData>
@@ -26741,13 +26741,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
+        <v>377.7436642170865</v>
+      </c>
+      <c r="E3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="E3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26790,13 +26790,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545556</v>
@@ -26814,10 +26814,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
@@ -31522,7 +31522,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31534,7 +31534,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119865</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31856,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,22 +31932,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32093,22 +32093,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,22 +32169,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245897</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047518</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35267,10 +35267,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,13 +35331,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35498,16 +35498,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35583,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35735,16 +35735,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35820,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35969,10 +35969,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245897</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36218,7 +36218,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36452,7 +36452,7 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36689,10 +36689,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P27" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181304</v>
       </c>
       <c r="K29" t="n">
         <v>297.2230414343419</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36917,7 +36917,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
-        <v>486.0228424856231</v>
+        <v>410.0055067279158</v>
       </c>
       <c r="N30" t="n">
         <v>559.3197334338902</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
         <v>297.2230414343419</v>
@@ -37166,7 +37166,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343417</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
         <v>421.5361394435301</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37403,7 +37403,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37640,7 +37640,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
@@ -37789,7 +37789,7 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530451</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37877,7 +37877,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38105,7 +38105,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>515.9012490932197</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245897</v>
